--- a/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/premodern-common.xlsx
+++ b/test/fixture/snapshot/cli/sort-format/collection-high-value/premodern/premodern-common.xlsx
@@ -24,8 +24,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 1/1
-Border: black
+          <t xml:space="preserve">Border: white
 Finish: normal</t>
         </r>
       </text>
@@ -33,22 +32,22 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">{G}, {T}: Target creature gets +0/+1 until end of turn.
-{U}, {T}: Put target creature you control on top of its owner's library.</t>
+          <t>{1}: The next time a black source of your choice would deal damage to you this turn, prevent that damage.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t>➤ 1 white</t>
+          <t xml:space="preserve">➤ 1 generic
+➤ 1 white</t>
         </r>
       </text>
     </comment>
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: white
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -56,7 +55,7 @@
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t>{1}: The next time a black source of your choice would deal damage to you this turn, prevent that damage.</t>
+          <t>{1}: The next time a white source of your choice would deal damage to you this turn, prevent that damage.</t>
         </r>
       </text>
     </comment>
@@ -71,7 +70,8 @@
     <comment ref="D5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
+          <t xml:space="preserve">P/T: 1/1
+Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -79,15 +79,15 @@
     <comment ref="E5" authorId="0">
       <text>
         <r>
-          <t>{1}: The next time a white source of your choice would deal damage to you this turn, prevent that damage.</t>
+          <t xml:space="preserve">{G}, {T}: Target creature gets +0/+1 until end of turn.
+{U}, {T}: Put target creature you control on top of its owner's library.</t>
         </r>
       </text>
     </comment>
     <comment ref="I5" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 white</t>
+          <t>➤ 1 white</t>
         </r>
       </text>
     </comment>
@@ -102,14 +102,15 @@
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>Return this enchantment to its owner's hand: Prevent all combat damage that would be dealt by target unblocked creature this turn.</t>
+          <t>Put target artifact or enchantment on top of its owner's library.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t>➤ 2 white</t>
+          <t xml:space="preserve">➤ 1 generic
+➤ 1 white</t>
         </r>
       </text>
     </comment>
@@ -124,7 +125,7 @@
     <comment ref="E7" authorId="0">
       <text>
         <r>
-          <t>Put target artifact or enchantment on top of its owner's library.</t>
+          <t>Destroy target artifact or enchantment.</t>
         </r>
       </text>
     </comment>
@@ -147,15 +148,14 @@
     <comment ref="E8" authorId="0">
       <text>
         <r>
-          <t>Destroy target artifact or enchantment.</t>
+          <t>Return this enchantment to its owner's hand: Prevent all combat damage that would be dealt by target unblocked creature this turn.</t>
         </r>
       </text>
     </comment>
     <comment ref="I8" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
-➤ 1 white</t>
+          <t>➤ 2 white</t>
         </r>
       </text>
     </comment>
@@ -227,8 +227,7 @@
     <comment ref="D3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/1
-Border: white
+          <t xml:space="preserve">Border: black
 Finish: normal</t>
         </r>
       </text>
@@ -236,14 +235,14 @@
     <comment ref="E3" authorId="0">
       <text>
         <r>
-          <t>When this creature dies, exile it.</t>
+          <t>Target opponent reveals their hand. You choose a card from it. That player discards that card.</t>
         </r>
       </text>
     </comment>
     <comment ref="I3" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 1 generic
+          <t xml:space="preserve">➤ 2 generic
 ➤ 1 black</t>
         </r>
       </text>
@@ -251,26 +250,23 @@
     <comment ref="D4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">P/T: 2/2
-Border: black
-Finish: normal
-Keywords:
-➤ Morph</t>
+          <t xml:space="preserve">P/T: 2/1
+Border: white
+Finish: normal</t>
         </r>
       </text>
     </comment>
     <comment ref="E4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Morph {3}{B} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)
-When this creature is turned face up, return all Zombie cards from all graveyards to their owners' hands.</t>
+          <t>When this creature dies, exile it.</t>
         </r>
       </text>
     </comment>
     <comment ref="I4" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 3 generic
+          <t xml:space="preserve">➤ 1 generic
 ➤ 1 black</t>
         </r>
       </text>
@@ -304,22 +300,26 @@
     <comment ref="D6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
+          <t xml:space="preserve">P/T: 2/2
+Border: black
+Finish: normal
+Keywords:
+➤ Morph</t>
         </r>
       </text>
     </comment>
     <comment ref="E6" authorId="0">
       <text>
         <r>
-          <t>Target opponent reveals their hand. You choose a card from it. That player discards that card.</t>
+          <t xml:space="preserve">Morph {3}{B} (You may cast this card face down as a 2/2 creature for {3}. Turn it face up any time for its morph cost.)
+When this creature is turned face up, return all Zombie cards from all graveyards to their owners' hands.</t>
         </r>
       </text>
     </comment>
     <comment ref="I6" authorId="0">
       <text>
         <r>
-          <t xml:space="preserve">➤ 2 generic
+          <t xml:space="preserve">➤ 3 generic
 ➤ 1 black</t>
         </r>
       </text>
@@ -443,6 +443,30 @@
     <comment ref="D7" authorId="0">
       <text>
         <r>
+          <t xml:space="preserve">Border: black
+Finish: normal</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E7" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">You may sacrifice two Mountains rather than pay this spell's mana cost.
+Fireblast deals 4 damage to any target.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I7" authorId="0">
+      <text>
+        <r>
+          <t xml:space="preserve">➤ 4 generic
+➤ 2 red</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
           <t xml:space="preserve">Border: white
 Finish: normal
 Keywords:
@@ -450,7 +474,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E7" authorId="0">
+    <comment ref="E8" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Enchant creature
@@ -458,14 +482,14 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0">
+    <comment ref="I8" authorId="0">
       <text>
         <r>
           <t>➤ 1 red</t>
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="0">
+    <comment ref="D9" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">Border: black
@@ -475,7 +499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">You may cast this spell as though it had flash. If you cast it any time a sorcery couldn't have been cast, the controller of the permanent it becomes sacrifices it at the beginning of the next cleanup step.
@@ -484,35 +508,11 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0">
+    <comment ref="I9" authorId="0">
       <text>
         <r>
           <t xml:space="preserve">➤ 1 generic
 ➤ 1 red</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D9" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">Border: black
-Finish: normal</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">You may sacrifice two Mountains rather than pay this spell's mana cost.
-Fireblast deals 4 damage to any target.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I9" authorId="0">
-      <text>
-        <r>
-          <t xml:space="preserve">➤ 4 generic
-➤ 2 red</t>
         </r>
       </text>
     </comment>
@@ -656,10 +656,55 @@
     <t>Scryfall Link</t>
   </si>
   <si>
-    <t>Civic Guildmage</t>
+    <t>Circle of Protection: Black</t>
   </si>
   <si>
     <t>premodern</t>
+  </si>
+  <si>
+    <t>Enchantment</t>
+  </si>
+  <si>
+    <t>3ed</t>
+  </si>
+  <si>
+    <t>Revised Edition</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>{1}{W}</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>Open Circle of Protection: Black</t>
+  </si>
+  <si>
+    <t>Circle of Protection: White</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>Open Circle of Protection: White</t>
+  </si>
+  <si>
+    <t>Civic Guildmage</t>
   </si>
   <si>
     <t>Creature</t>
@@ -680,82 +725,19 @@
     <t>{W}</t>
   </si>
   <si>
-    <t>W</t>
-  </si>
-  <si>
     <t>G, U, W</t>
   </si>
   <si>
-    <t>0.11</t>
-  </si>
-  <si>
     <t>Open Civic Guildmage</t>
-  </si>
-  <si>
-    <t>Circle of Protection: Black</t>
-  </si>
-  <si>
-    <t>Enchantment</t>
-  </si>
-  <si>
-    <t>3ed</t>
-  </si>
-  <si>
-    <t>Revised Edition</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>{1}{W}</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>Open Circle of Protection: Black</t>
-  </si>
-  <si>
-    <t>Circle of Protection: White</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>Open Circle of Protection: White</t>
-  </si>
-  <si>
-    <t>Gossamer Chains</t>
-  </si>
-  <si>
-    <t>vis</t>
-  </si>
-  <si>
-    <t>Visions</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>{W}{W}</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>Open Gossamer Chains</t>
   </si>
   <si>
     <t>Disempower</t>
   </si>
   <si>
     <t>Instant</t>
+  </si>
+  <si>
+    <t>0.14</t>
   </si>
   <si>
     <t>Open Disempower</t>
@@ -777,6 +759,24 @@
   </si>
   <si>
     <t>Open Disenchant</t>
+  </si>
+  <si>
+    <t>Gossamer Chains</t>
+  </si>
+  <si>
+    <t>vis</t>
+  </si>
+  <si>
+    <t>Visions</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>{W}{W}</t>
+  </si>
+  <si>
+    <t>Open Gossamer Chains</t>
   </si>
   <si>
     <t>Indestructible Aura</t>
@@ -821,6 +821,33 @@
     <t>Premodern (Common) - Black</t>
   </si>
   <si>
+    <t>Coercion</t>
+  </si>
+  <si>
+    <t>Sorcery</t>
+  </si>
+  <si>
+    <t>tmp</t>
+  </si>
+  <si>
+    <t>Tempest</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>{2}{B}</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>0.31</t>
+  </si>
+  <si>
+    <t>Open Coercion</t>
+  </si>
+  <si>
     <t>Cyclopean Mummy</t>
   </si>
   <si>
@@ -839,10 +866,28 @@
     <t>{1}{B}</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Open Cyclopean Mummy</t>
   </si>
   <si>
-    <t>Open Cyclopean Mummy</t>
+    <t>Feast of the Unicorn</t>
+  </si>
+  <si>
+    <t>Enchantment — Aura</t>
+  </si>
+  <si>
+    <t>hml</t>
+  </si>
+  <si>
+    <t>Homelands</t>
+  </si>
+  <si>
+    <t>47a</t>
+  </si>
+  <si>
+    <t>{3}{B}</t>
+  </si>
+  <si>
+    <t>Open Feast of the Unicorn</t>
   </si>
   <si>
     <t>Infernal Caretaker</t>
@@ -860,52 +905,7 @@
     <t>76</t>
   </si>
   <si>
-    <t>{3}{B}</t>
-  </si>
-  <si>
     <t>Open Infernal Caretaker</t>
-  </si>
-  <si>
-    <t>Feast of the Unicorn</t>
-  </si>
-  <si>
-    <t>Enchantment — Aura</t>
-  </si>
-  <si>
-    <t>hml</t>
-  </si>
-  <si>
-    <t>Homelands</t>
-  </si>
-  <si>
-    <t>47a</t>
-  </si>
-  <si>
-    <t>Open Feast of the Unicorn</t>
-  </si>
-  <si>
-    <t>Coercion</t>
-  </si>
-  <si>
-    <t>Sorcery</t>
-  </si>
-  <si>
-    <t>tmp</t>
-  </si>
-  <si>
-    <t>Tempest</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>{2}{B}</t>
-  </si>
-  <si>
-    <t>0.31</t>
-  </si>
-  <si>
-    <t>Open Coercion</t>
   </si>
   <si>
     <t>Premodern (Common) - Red</t>
@@ -965,6 +965,21 @@
     <t>66b</t>
   </si>
   <si>
+    <t>Fireblast</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>{4}{R}{R}</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>Open Fireblast</t>
+  </si>
+  <si>
     <t>Firebreathing</t>
   </si>
   <si>
@@ -987,21 +1002,6 @@
   </si>
   <si>
     <t>Open Lightning Reflexes</t>
-  </si>
-  <si>
-    <t>Fireblast</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>{4}{R}{R}</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>Open Fireblast</t>
   </si>
   <si>
     <t>Premodern (Common) - Green</t>
@@ -1131,7 +1131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1163,39 +1163,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFD6C6FF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF777777"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,22 +1186,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,16 +1198,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1679,7 +1633,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
@@ -1688,297 +1642,297 @@
         <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="7">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>31</v>
-      </c>
       <c r="I4" s="9" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="J4" s="9">
         <v>2</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B5" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="7">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="M5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="9">
+        <v>2</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="N6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="11" t="s">
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="11">
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="7">
         <v>2</v>
       </c>
-      <c r="K6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="13">
+      <c r="K7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="9">
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="13">
+      <c r="D8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="9">
         <v>2</v>
       </c>
-      <c r="K7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="11">
+      <c r="K8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="11">
         <v>1</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="11">
-        <v>2</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="15">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="15" t="s">
+      <c r="K9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="15" t="s">
+      <c r="L9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="15" t="s">
+      <c r="N9" s="11" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5289,46 +5243,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>2</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8637,13 +8591,13 @@
         <v>70</v>
       </c>
       <c r="B3" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>71</v>
@@ -8661,7 +8615,7 @@
         <v>75</v>
       </c>
       <c r="J3" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>76</v>
@@ -8670,141 +8624,141 @@
         <v>76</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="9">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="11">
+      <c r="N4" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5" s="7">
+        <v>4</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="J4" s="11">
+      <c r="D6" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" s="13">
         <v>4</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="13">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J5" s="13">
-        <v>4</v>
-      </c>
-      <c r="K5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="17">
-        <v>1</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="J6" s="17">
-        <v>3</v>
-      </c>
-      <c r="K6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="M6" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -12122,16 +12076,16 @@
         <v>16</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>101</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>102</v>
@@ -12156,46 +12110,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="9">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="F4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="G4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="9">
         <v>4</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L4" s="11" t="s">
+      <c r="L4" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="11" t="s">
+      <c r="M4" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="N4" s="11" t="s">
+      <c r="N4" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -12210,7 +12164,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>112</v>
@@ -12244,178 +12198,178 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="7">
+        <v>6</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" s="9">
+        <v>4</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" s="11">
-        <v>5</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="E8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="J8" s="9">
+        <v>1</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L8" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B7" s="13">
-        <v>4</v>
-      </c>
-      <c r="C7" s="13" t="s">
+      <c r="M8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="11">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="J7" s="13">
-        <v>1</v>
-      </c>
-      <c r="K7" s="13" t="s">
+      <c r="D9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="J9" s="11">
+        <v>2</v>
+      </c>
+      <c r="K9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L9" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="11">
-        <v>3</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="11">
-        <v>2</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="M8" s="11" t="s">
+      <c r="M9" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B9" s="19">
-        <v>4</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="J9" s="19">
-        <v>6</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -15726,46 +15680,46 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="D3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>4</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="M3" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -19113,46 +19067,46 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="13">
         <v>1</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="13">
         <v>4</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="13" t="s">
         <v>156</v>
       </c>
     </row>
